--- a/TPs/TP1/TABLA100/AG_TP1_Torneo_s_Elitismo.xlsx
+++ b/TPs/TP1/TABLA100/AG_TP1_Torneo_s_Elitismo.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9772865524995162</v>
+        <v>0.9786152521974605</v>
       </c>
       <c r="C2">
-        <v>0.001723061615328556</v>
+        <v>0.01737813809138321</v>
       </c>
       <c r="D2">
-        <v>0.4547548723030227</v>
+        <v>0.2794867424089306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9792183226711992</v>
+        <v>0.9786153056334824</v>
       </c>
       <c r="C3">
-        <v>0.1599640006706629</v>
+        <v>0.2037817260414418</v>
       </c>
       <c r="D3">
-        <v>0.7636379970914551</v>
+        <v>0.5014261092644381</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9792183226711992</v>
+        <v>0.978615768131527</v>
       </c>
       <c r="C4">
-        <v>0.9771871910116741</v>
+        <v>0.5775035295060091</v>
       </c>
       <c r="D4">
-        <v>0.9782425014365735</v>
+        <v>0.8021494999263348</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -444,13 +444,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9792183226711992</v>
+        <v>0.978615768131527</v>
       </c>
       <c r="C5">
-        <v>0.9792107729832277</v>
+        <v>0.9177641990799491</v>
       </c>
       <c r="D5">
-        <v>0.9792175559059922</v>
+        <v>0.9697020160404739</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -458,13 +458,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9792183226711992</v>
+        <v>0.978615768131527</v>
       </c>
       <c r="C6">
-        <v>0.9183477221009814</v>
+        <v>0.978615768131527</v>
       </c>
       <c r="D6">
-        <v>0.9670441907607458</v>
+        <v>0.9786157681315271</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -472,13 +472,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9792187945276638</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C7">
-        <v>0.9792183226711992</v>
+        <v>0.9786157091676269</v>
       </c>
       <c r="D7">
-        <v>0.9792183698568457</v>
+        <v>0.9801675690396083</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -486,13 +486,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9792187945276638</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C8">
-        <v>0.9792183226711992</v>
+        <v>0.9785553900281294</v>
       </c>
       <c r="D8">
-        <v>0.9792185114137851</v>
+        <v>0.9848169575390724</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -500,13 +500,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9792187945276638</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C9">
-        <v>0.2396639474221553</v>
+        <v>0.978615768131527</v>
       </c>
       <c r="D9">
-        <v>0.9052632154458202</v>
+        <v>0.9925820293717684</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -514,13 +514,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9794603999677828</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C10">
-        <v>0.9772870238903195</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D10">
-        <v>0.9790950788649821</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.994741624177327</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C11">
-        <v>0.9792187945276638</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D11">
-        <v>0.9809477517792178</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -542,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9947568428535093</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C12">
-        <v>0.9794603999677828</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D12">
-        <v>0.9840553616306513</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -556,13 +556,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9947568428535093</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C13">
-        <v>0.5585579505008815</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D13">
-        <v>0.8195106355188788</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -570,13 +570,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9948785964539193</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C14">
-        <v>0.8739912207382519</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D14">
-        <v>0.9827259382537787</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -584,13 +584,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9948786038853966</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C15">
-        <v>0.9947568428535093</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D15">
-        <v>0.9948420711169439</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -598,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9987786455736007</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C16">
-        <v>0.9871013863981928</v>
+        <v>0.9936470488058511</v>
       </c>
       <c r="D16">
-        <v>0.9944893598858597</v>
+        <v>0.9939877999651232</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -612,13 +612,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.99877865301963</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C17">
-        <v>0.9639528690151664</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D17">
-        <v>0.9921760078153319</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -626,13 +626,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.99877865301963</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C18">
-        <v>0.7611445999490202</v>
+        <v>0.9940729812356832</v>
       </c>
       <c r="D18">
-        <v>0.9657588888130795</v>
+        <v>0.9941277506821841</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -640,13 +640,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.99877865301963</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C19">
-        <v>0.9948633842778349</v>
+        <v>0.9941338213188493</v>
       </c>
       <c r="D19">
-        <v>0.9960440467945751</v>
+        <v>0.9941338346905007</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -654,13 +654,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.99877865301963</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C20">
-        <v>0.8777326690639945</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D20">
-        <v>0.9851079114489762</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -668,13 +668,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.99877865301963</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C21">
-        <v>0.9948767014280849</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D21">
-        <v>0.997998452947052</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -682,13 +682,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C22">
-        <v>0.9982907296453366</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D22">
-        <v>0.9986809730357094</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -696,13 +696,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C23">
-        <v>0.9827396514688332</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D23">
-        <v>0.989156057223035</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -710,13 +710,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C24">
-        <v>0.9827410695815205</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D24">
-        <v>0.9969804877065558</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -724,13 +724,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C25">
-        <v>0.5615847973766693</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D25">
-        <v>0.8237872285664685</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -738,13 +738,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C26">
-        <v>0.56156192805331</v>
+        <v>0.8734072605749031</v>
       </c>
       <c r="D26">
-        <v>0.9314755917822305</v>
+        <v>0.9820611786161061</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -752,13 +752,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C27">
-        <v>0.56156192805331</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D27">
-        <v>0.9550383715563647</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -766,13 +766,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C28">
-        <v>0.9987452950867119</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D28">
-        <v>0.9987691936571643</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -780,13 +780,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9987796061116131</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C29">
-        <v>0.8777621539060493</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D29">
-        <v>0.9851223706606895</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -794,13 +794,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9997558109537305</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C30">
-        <v>0.9987796061116131</v>
+        <v>0.9931603806447521</v>
       </c>
       <c r="D30">
-        <v>0.9988772265958248</v>
+        <v>0.994036490623091</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -808,13 +808,13 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9997558109537305</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C31">
-        <v>0.99877865301963</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D31">
-        <v>0.9993652098687399</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -822,13 +822,13 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9997558109537305</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C32">
-        <v>0.9382400047709477</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D32">
-        <v>0.9928245778599907</v>
+        <v>0.9941338361762397</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -836,13 +836,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9997558109537305</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="C33">
-        <v>0.2498779124657641</v>
+        <v>0.9941338213188493</v>
       </c>
       <c r="D33">
-        <v>0.9247557205809398</v>
+        <v>0.9941338346905007</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9999999366700659</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C34">
-        <v>0.9978038781066548</v>
+        <v>0.9632197703995414</v>
       </c>
       <c r="D34">
-        <v>0.9995850302406565</v>
+        <v>0.9914322886483241</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -864,13 +864,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9999999366700659</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C35">
-        <v>0.9687537672368843</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D35">
-        <v>0.9967776575207405</v>
+        <v>0.9945236952259939</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -878,13 +878,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C36">
-        <v>0.9999389024470143</v>
+        <v>0.9941338361762398</v>
       </c>
       <c r="D36">
-        <v>0.9999930762702508</v>
+        <v>0.9949127920886888</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -892,13 +892,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C37">
-        <v>0.9922024582120285</v>
+        <v>0.9941243274689961</v>
       </c>
       <c r="D37">
-        <v>0.9976606990931203</v>
+        <v>0.9964705152299217</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -906,13 +906,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C38">
-        <v>0.9922027550710766</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D38">
-        <v>0.998440518231663</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -920,13 +920,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C39">
-        <v>0.878906246398401</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D39">
-        <v>0.9636474587394559</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -934,13 +934,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C40">
-        <v>0.9999694789294438</v>
+        <v>0.7639034942347508</v>
       </c>
       <c r="D40">
-        <v>0.999996896856473</v>
+        <v>0.9746195334298786</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -948,13 +948,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C41">
-        <v>0.9960975535395917</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D41">
-        <v>0.9996097452956754</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -962,13 +962,13 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C42">
-        <v>0.9995117746298093</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D42">
-        <v>0.9999511741102196</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -976,13 +976,13 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C43">
-        <v>0.999999757856145</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D43">
-        <v>0.9999999724328532</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -990,13 +990,13 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C44">
-        <v>0.9960975609756204</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D44">
-        <v>0.9996097050610906</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1004,13 +1004,13 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C45">
-        <v>0.2499999976716936</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D45">
-        <v>0.9218994104798639</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1018,13 +1018,13 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C46">
-        <v>0.9998779296876137</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D46">
-        <v>0.9999633748084648</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1032,13 +1032,13 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C47">
-        <v>0.7656249965366442</v>
+        <v>0.9980314739383659</v>
       </c>
       <c r="D47">
-        <v>0.9765617259123254</v>
+        <v>0.9980323314002402</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1046,13 +1046,13 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9999999962747097</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C48">
-        <v>0.9980478249508469</v>
+        <v>0.9980321884898852</v>
       </c>
       <c r="D48">
-        <v>0.9994142495101421</v>
+        <v>0.9980324024832296</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1060,13 +1060,13 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C49">
-        <v>0.9844360314456253</v>
+        <v>0.249016697266904</v>
       </c>
       <c r="D49">
-        <v>0.9968780485244082</v>
+        <v>0.9231308533609315</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1074,13 +1074,13 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C50">
-        <v>0.9995117746298093</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D50">
-        <v>0.9998535312712648</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1088,13 +1088,13 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C51">
-        <v>0.4726562495998223</v>
+        <v>0.9980321884898852</v>
       </c>
       <c r="D51">
-        <v>0.9230345785232318</v>
+        <v>0.9980324028553922</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1102,13 +1102,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C52">
-        <v>0.9844360351418118</v>
+        <v>0.8770617104469903</v>
       </c>
       <c r="D52">
-        <v>0.998419000207002</v>
+        <v>0.9858378187630901</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1116,13 +1116,13 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C53">
-        <v>0.2499999995343387</v>
+        <v>0.9980324229521581</v>
       </c>
       <c r="D53">
-        <v>0.9249992370154352</v>
+        <v>0.9980324263016195</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1130,13 +1130,13 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C54">
-        <v>0.9999998807907138</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D54">
-        <v>0.9999999880790714</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1144,13 +1144,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C55">
-        <v>0.9960975646936348</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D55">
-        <v>0.9996036500666328</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1158,13 +1158,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="C56">
-        <v>0.7656249997962732</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D56">
-        <v>0.9644531242702215</v>
+        <v>0.9980324266737817</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1172,13 +1172,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C57">
-        <v>0.9999961853063688</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D57">
-        <v>0.9999996185306369</v>
+        <v>0.9980324326283794</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1186,13 +1186,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C58">
-        <v>0.9995117485591439</v>
+        <v>0.9980324266737818</v>
       </c>
       <c r="D58">
-        <v>0.9997924003770209</v>
+        <v>0.998032447514874</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1200,13 +1200,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C59">
-        <v>0.9960975646936348</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D59">
-        <v>0.9995974544432222</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1214,13 +1214,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C60">
-        <v>0.9960975646936348</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D60">
-        <v>0.9996067047348312</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1228,13 +1228,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C61">
-        <v>0.9844360351418118</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D61">
-        <v>0.9984191894516584</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1242,13 +1242,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C62">
-        <v>0.992202758781815</v>
+        <v>0.7639035202824496</v>
       </c>
       <c r="D62">
-        <v>0.9991893774825907</v>
+        <v>0.9746195628303387</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1256,13 +1256,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C63">
-        <v>0.9384728669592699</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D63">
-        <v>0.9815414786184178</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1270,13 +1270,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C64">
-        <v>0.992202758781815</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D64">
-        <v>0.9992202728979492</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1284,13 +1284,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C65">
-        <v>0.562499999650754</v>
+        <v>0.9980319800789988</v>
       </c>
       <c r="D65">
-        <v>0.9560547824597962</v>
+        <v>0.9980324088099936</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1298,13 +1298,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C66">
-        <v>0.9912302493967577</v>
+        <v>0.9977885710196182</v>
       </c>
       <c r="D66">
-        <v>0.9988301217545124</v>
+        <v>0.9980080679040555</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1312,13 +1312,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C67">
-        <v>0.9999999403953561</v>
+        <v>0.5610245841763359</v>
       </c>
       <c r="D67">
-        <v>0.9999999746680264</v>
+        <v>0.9543316692197272</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1326,13 +1326,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C68">
-        <v>0.2499999995343387</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D68">
-        <v>0.7749995558060674</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1340,13 +1340,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C69">
-        <v>0.9999694826546772</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D69">
-        <v>0.9999969363445391</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C70">
-        <v>0.562499999650754</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D70">
-        <v>0.9562484740919885</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C71">
-        <v>0.562499999650754</v>
+        <v>0.9670573550480474</v>
       </c>
       <c r="D71">
-        <v>0.9531494110444783</v>
+        <v>0.9949349463068984</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C72">
-        <v>0.9999980926522749</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D72">
-        <v>0.9999998062849953</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1424,13 +1424,13 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C75">
-        <v>0.9999980926522749</v>
+        <v>0.9980019691385622</v>
       </c>
       <c r="D75">
-        <v>0.9999998092652275</v>
+        <v>0.998026263711586</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1438,13 +1438,13 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C76">
-        <v>0.9960975646936348</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D76">
-        <v>0.9996089935313648</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C77">
-        <v>0.992202758781815</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D77">
-        <v>0.9990227639738816</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1466,13 +1466,13 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C78">
-        <v>0.9995117783541901</v>
+        <v>0.9977885710196182</v>
       </c>
       <c r="D78">
-        <v>0.9999504148974203</v>
+        <v>0.9980019704889799</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C79">
-        <v>0.9999694826546772</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D79">
-        <v>0.9999968469375944</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1494,13 +1494,13 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C80">
-        <v>0.9990236759176701</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D80">
-        <v>0.999804735183534</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1508,13 +1508,13 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C81">
-        <v>0.8789062498908606</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D81">
-        <v>0.9878906249890861</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C82">
-        <v>0.8789062498908606</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D82">
-        <v>0.9878905765603179</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,13 +1536,13 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C83">
-        <v>0.562499999650754</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D83">
-        <v>0.9562499999650754</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1550,13 +1550,13 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C84">
-        <v>0.2499999995343387</v>
+        <v>0.997544715394788</v>
       </c>
       <c r="D84">
-        <v>0.9246097564227973</v>
+        <v>0.9979836823415724</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1564,13 +1564,13 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C85">
-        <v>0.7656249997962732</v>
+        <v>0.9902429047298171</v>
       </c>
       <c r="D85">
-        <v>0.9765624999796273</v>
+        <v>0.9972535012750754</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1578,13 +1578,13 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C86">
-        <v>0.992202758781815</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D86">
-        <v>0.9992202639572529</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1592,13 +1592,13 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C87">
-        <v>0.9998779334126766</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D87">
-        <v>0.9999877873808032</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1606,13 +1606,13 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C88">
-        <v>0.9995117783541901</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D88">
-        <v>0.9999507486823458</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1620,13 +1620,13 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C89">
-        <v>0.9999980926522749</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D89">
-        <v>0.9999998085201695</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1634,13 +1634,13 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1648,13 +1648,13 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C91">
-        <v>0.765197813306827</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D91">
-        <v>0.9499771177506844</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1662,13 +1662,13 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.9980322182628706</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0.9980324326283807</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1676,13 +1676,13 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C93">
-        <v>0.9980478286724992</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D93">
-        <v>0.9997802630065056</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1690,13 +1690,13 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C94">
-        <v>0.9960974457171792</v>
+        <v>0.9970570935520948</v>
       </c>
       <c r="D94">
-        <v>0.9992192864644525</v>
+        <v>0.9979348248837601</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1704,13 +1704,13 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C95">
-        <v>0.9384765624436113</v>
+        <v>0.9980305509763653</v>
       </c>
       <c r="D95">
-        <v>0.9938476558718321</v>
+        <v>0.9980322658997303</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1718,13 +1718,13 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C96">
-        <v>0.9999999925494194</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D96">
-        <v>0.999999999254942</v>
+        <v>0.9980324564467707</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1732,13 +1732,13 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C97">
-        <v>0.9999980926522749</v>
+        <v>0.8770617383573343</v>
       </c>
       <c r="D97">
-        <v>0.999999785423371</v>
+        <v>0.9859353846378272</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1746,13 +1746,13 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="C98">
-        <v>0.9997558742759338</v>
+        <v>0.9980319800789988</v>
       </c>
       <c r="D98">
-        <v>0.9999755874275934</v>
+        <v>0.9980324088099936</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1760,13 +1760,13 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.9980324638900181</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.9980305509763653</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0.9980322666440549</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1774,13 +1774,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.9980324638900181</v>
       </c>
       <c r="C100">
-        <v>0.9999995231628982</v>
+        <v>0.9975447228362162</v>
       </c>
       <c r="D100">
-        <v>0.9999999523162899</v>
+        <v>0.9977885903858181</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1788,13 +1788,13 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0.9980324638900181</v>
       </c>
       <c r="C101">
-        <v>0.9995117783541901</v>
+        <v>0.9980324564467707</v>
       </c>
       <c r="D101">
-        <v>0.9999511748551868</v>
+        <v>0.9980324571910953</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1802,13 +1802,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>0.9980324638900181</v>
       </c>
       <c r="C102">
-        <v>0.992202758781815</v>
+        <v>0.7639035202824496</v>
       </c>
       <c r="D102">
-        <v>0.9992201805107612</v>
+        <v>0.9746195650633128</v>
       </c>
     </row>
   </sheetData>
